--- a/Plugin_apartmentography/bin/Debug/Resources/Отчёты.xlsx
+++ b/Plugin_apartmentography/bin/Debug/Resources/Отчёты.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.sinyagina\AppData\Roaming\Autodesk\Revit\Addins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0F931C-6D08-41AB-AC63-B3CE72790F51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638B2025-7A6A-4092-9874-CBB3A28AF31C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ТЭП по модели АР" sheetId="2" r:id="rId1"/>
     <sheet name="Отчёт УК" sheetId="3" r:id="rId2"/>
     <sheet name="Выгрузка на корпус" sheetId="4" r:id="rId3"/>
+    <sheet name="Выгрузка на секцию" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
   <si>
     <t>ТЕХНИКО-ЭКОНОМИЧЕКИЕ ПОКАЗАТЕЛИ ПРОЕКТА</t>
   </si>
@@ -207,13 +208,28 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>Выгрузка на секцию (распределение квартир по этажам)</t>
+  </si>
+  <si>
+    <t>КОРПУС №_1_ СЕКЦИЯ №_1_</t>
+  </si>
+  <si>
+    <t>Общее количество КВАРТИР в корпусе, в т.ч.:</t>
+  </si>
+  <si>
+    <t>Общее количество квартир по типам</t>
+  </si>
+  <si>
+    <t>Общее количество квартир по подтипу</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,8 +436,36 @@
       <name val="Factor A"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="64"/>
+      <name val="Factor A"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="2"/>
+      <name val="Factor A"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="64"/>
+      <name val="Factor A"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Factor A"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="64"/>
+      <name val="Factor A"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,14 +628,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="58">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -1342,6 +1380,104 @@
     <border>
       <left/>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1362,7 +1498,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1678,17 +1814,6 @@
     <xf numFmtId="0" fontId="22" fillId="21" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1777,6 +1902,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="27" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="27" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="27" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="23" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="23" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="24" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="24" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="24" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="25" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="25" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="25" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="26" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="26" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="26" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="16" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="16" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="16" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="20" fillId="12" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1817,93 +2002,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="20" fillId="16" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="27" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="27" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="27" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="23" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="23" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="24" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="24" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="24" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="25" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="25" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="25" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="26" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="26" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="26" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="16" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="16" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="16" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="14" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="14" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="14" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="15" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="15" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="15" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="16" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="16" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="16" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1933,12 +2031,48 @@
     <xf numFmtId="2" fontId="20" fillId="13" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="20" fillId="14" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="14" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="14" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="15" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="15" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="15" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="16" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="16" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="16" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="20" fillId="12" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="20" fillId="12" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="27" fillId="27" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="27" borderId="56" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="27" borderId="57" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="27" fillId="24" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1981,14 +2115,179 @@
     <xf numFmtId="9" fontId="27" fillId="16" borderId="57" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="27" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="27" borderId="56" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="27" borderId="57" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="11" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="12" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="12" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="13" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="13" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="13" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="14" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="14" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="14" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="15" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="15" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="15" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="16" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="16" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="16" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="27" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="27" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="27" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="11" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="65" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2911,8 +3210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10905AC-08E9-4CCC-8F72-18EB2338014E}">
   <dimension ref="A1:AE56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,24 +3225,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="191"/>
-      <c r="P1" s="192" t="s">
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="178" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2951,81 +3250,81 @@
       <c r="A2" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="193">
+      <c r="B2" s="179">
         <v>1</v>
       </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="195">
+      <c r="C2" s="180"/>
+      <c r="D2" s="181">
         <v>2</v>
       </c>
-      <c r="E2" s="196"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="180">
+      <c r="E2" s="182"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="184">
         <v>3</v>
       </c>
-      <c r="H2" s="181"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="183">
+      <c r="H2" s="185"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="187">
         <v>4</v>
       </c>
-      <c r="K2" s="184"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="186">
+      <c r="K2" s="188"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="190">
         <v>5</v>
       </c>
-      <c r="N2" s="187"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="192"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="192"/>
+      <c r="P2" s="178"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="192"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="178"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="195" t="s">
+      <c r="C4" s="194"/>
+      <c r="D4" s="181" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="196"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="180" t="s">
+      <c r="E4" s="182"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="181"/>
-      <c r="I4" s="182"/>
-      <c r="J4" s="183" t="s">
+      <c r="H4" s="185"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="184"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="186">
-        <v>0</v>
-      </c>
-      <c r="N4" s="187"/>
-      <c r="O4" s="188"/>
-      <c r="P4" s="192"/>
+      <c r="K4" s="188"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="190">
+        <v>0</v>
+      </c>
+      <c r="N4" s="191"/>
+      <c r="O4" s="192"/>
+      <c r="P4" s="178"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
@@ -3073,7 +3372,7 @@
       <c r="O5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="192"/>
+      <c r="P5" s="178"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
@@ -3093,7 +3392,7 @@
       <c r="M6" s="64"/>
       <c r="N6" s="64"/>
       <c r="O6" s="64"/>
-      <c r="P6" s="192"/>
+      <c r="P6" s="178"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
@@ -3113,7 +3412,7 @@
       <c r="M7" s="65"/>
       <c r="N7" s="65"/>
       <c r="O7" s="65"/>
-      <c r="P7" s="192"/>
+      <c r="P7" s="178"/>
       <c r="Q7" s="66"/>
       <c r="R7" s="67"/>
       <c r="S7" s="67"/>
@@ -3178,7 +3477,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="192"/>
+      <c r="P8" s="178"/>
       <c r="Q8" s="70"/>
       <c r="R8" s="70"/>
       <c r="S8" s="70"/>
@@ -3199,36 +3498,36 @@
       <c r="A9" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="163">
+      <c r="B9" s="141">
         <f>SUM(B8:B8)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="165"/>
-      <c r="D9" s="163">
+      <c r="C9" s="143"/>
+      <c r="D9" s="141">
         <f>SUM(D8:E8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="164"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="163">
+      <c r="E9" s="142"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="141">
         <f>SUM(G8:H8)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="164"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="163">
+      <c r="H9" s="142"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="141">
         <f>SUM(J8:K8)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="164"/>
-      <c r="L9" s="165"/>
-      <c r="M9" s="163">
+      <c r="K9" s="142"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="141">
         <f>SUM(M8:O8)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="164"/>
-      <c r="O9" s="165"/>
-      <c r="P9" s="192"/>
+      <c r="N9" s="142"/>
+      <c r="O9" s="143"/>
+      <c r="P9" s="178"/>
       <c r="Q9" s="71"/>
       <c r="R9" s="71"/>
       <c r="S9" s="71"/>
@@ -3249,27 +3548,27 @@
       <c r="A10" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="163">
+      <c r="B10" s="141">
         <f>B9+D9+G9+J9+M9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="164"/>
-      <c r="M10" s="164"/>
-      <c r="N10" s="164"/>
-      <c r="O10" s="165"/>
-      <c r="P10" s="192"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="143"/>
+      <c r="P10" s="178"/>
       <c r="Q10" s="71"/>
       <c r="R10" s="72"/>
-      <c r="S10" s="136"/>
+      <c r="S10" s="131"/>
       <c r="T10" s="72"/>
       <c r="U10" s="72"/>
       <c r="V10" s="72"/>
@@ -3321,7 +3620,7 @@
       <c r="O11" s="78" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="P11" s="192"/>
+      <c r="P11" s="178"/>
       <c r="Q11" s="79"/>
       <c r="R11" s="80"/>
       <c r="S11" s="80"/>
@@ -3376,7 +3675,7 @@
       <c r="O12" s="84" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="P12" s="192"/>
+      <c r="P12" s="178"/>
       <c r="Q12" s="85"/>
       <c r="R12" s="86"/>
       <c r="S12" s="86"/>
@@ -3397,31 +3696,31 @@
       <c r="A13" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="166">
+      <c r="B13" s="147">
         <v>0.11767702496179318</v>
       </c>
-      <c r="C13" s="167"/>
-      <c r="D13" s="168">
+      <c r="C13" s="148"/>
+      <c r="D13" s="149">
         <v>0.35455934793683136</v>
       </c>
-      <c r="E13" s="169"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="171">
+      <c r="E13" s="150"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="152">
         <v>0.39174732552215996</v>
       </c>
-      <c r="H13" s="172"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="174">
+      <c r="H13" s="153"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="155">
         <v>0.13601630157921549</v>
       </c>
-      <c r="K13" s="175"/>
-      <c r="L13" s="176"/>
-      <c r="M13" s="177">
-        <v>0</v>
-      </c>
-      <c r="N13" s="178"/>
-      <c r="O13" s="179"/>
-      <c r="P13" s="192"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="157"/>
+      <c r="M13" s="158">
+        <v>0</v>
+      </c>
+      <c r="N13" s="159"/>
+      <c r="O13" s="160"/>
+      <c r="P13" s="178"/>
       <c r="Q13" s="85"/>
       <c r="R13" s="87"/>
       <c r="S13" s="87"/>
@@ -3503,35 +3802,35 @@
       <c r="A19" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="146">
+      <c r="B19" s="161">
         <v>1</v>
       </c>
-      <c r="C19" s="147"/>
-      <c r="D19" s="148">
+      <c r="C19" s="162"/>
+      <c r="D19" s="163">
         <v>2</v>
       </c>
-      <c r="E19" s="149"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="151">
+      <c r="E19" s="164"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="166">
         <v>3</v>
       </c>
-      <c r="H19" s="152"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="154">
+      <c r="H19" s="167"/>
+      <c r="I19" s="168"/>
+      <c r="J19" s="169">
         <v>4</v>
       </c>
-      <c r="K19" s="155"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="157">
+      <c r="K19" s="170"/>
+      <c r="L19" s="171"/>
+      <c r="M19" s="172">
         <v>5</v>
       </c>
-      <c r="N19" s="158"/>
-      <c r="O19" s="159"/>
-      <c r="P19" s="160">
+      <c r="N19" s="173"/>
+      <c r="O19" s="174"/>
+      <c r="P19" s="144">
         <v>6</v>
       </c>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="162"/>
+      <c r="Q19" s="145"/>
+      <c r="R19" s="146"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="101" t="s">
@@ -3590,168 +3889,168 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="101"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="115"/>
-      <c r="R21" s="115"/>
+      <c r="A21" s="212"/>
+      <c r="B21" s="213"/>
+      <c r="C21" s="214"/>
+      <c r="D21" s="215"/>
+      <c r="E21" s="216"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="216"/>
+      <c r="H21" s="216"/>
+      <c r="I21" s="216"/>
+      <c r="J21" s="216"/>
+      <c r="K21" s="216"/>
+      <c r="L21" s="216"/>
+      <c r="M21" s="216"/>
+      <c r="N21" s="216"/>
+      <c r="O21" s="216"/>
+      <c r="P21" s="217"/>
+      <c r="Q21" s="217"/>
+      <c r="R21" s="217"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="117">
+      <c r="B22" s="112">
         <f t="shared" ref="B22:R22" ca="1" si="1">SUM(B22:B31)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="118">
+      <c r="C22" s="113">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="118">
+      <c r="D22" s="113">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="E22" s="118">
+      <c r="E22" s="113">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="118">
+      <c r="F22" s="113">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="G22" s="118">
+      <c r="G22" s="113">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="118">
+      <c r="H22" s="113">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="118">
+      <c r="I22" s="113">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="J22" s="118">
+      <c r="J22" s="113">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="K22" s="118">
+      <c r="K22" s="113">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="L22" s="118">
+      <c r="L22" s="113">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="M22" s="118">
+      <c r="M22" s="113">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="N22" s="118">
+      <c r="N22" s="113">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="119">
+      <c r="O22" s="114">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="P22" s="118">
+      <c r="P22" s="113">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="118">
+      <c r="Q22" s="113">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="R22" s="119">
+      <c r="R22" s="114">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="120" t="s">
+      <c r="A23" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="121">
+      <c r="B23" s="116">
         <f ca="1">SUM(B22:C22)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="122"/>
-      <c r="D23" s="123">
+      <c r="C23" s="117"/>
+      <c r="D23" s="118">
         <f ca="1">SUM(D22:F22)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="124">
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="119">
         <f ca="1">SUM(G22:I22)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="124"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="123">
+      <c r="H23" s="119"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118">
         <f ca="1">SUM(J22:L22)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="123">
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118">
         <f ca="1">SUM(M22:O22)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="123"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="123">
+      <c r="N23" s="118"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="118">
         <f ca="1">SUM(P22:R22)</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="125"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="120"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="120" t="s">
+      <c r="A24" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="126">
+      <c r="B24" s="121">
         <f ca="1">SUM(B23:R23)</f>
         <v>0</v>
       </c>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="128"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="123"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="120" t="s">
+      <c r="A25" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="129">
+      <c r="B25" s="124">
         <f ca="1">B22/(B22+C22)</f>
         <v>0</v>
       </c>
@@ -3795,36 +4094,36 @@
         <f ca="1">L22/(L22+K22+J22)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="130">
+      <c r="M25" s="125">
         <f ca="1">M22/(M22+N22+O22)</f>
         <v>0</v>
       </c>
-      <c r="N25" s="130">
+      <c r="N25" s="125">
         <f ca="1">N22/(M22+N22+O22)</f>
         <v>0</v>
       </c>
-      <c r="O25" s="131">
+      <c r="O25" s="126">
         <f ca="1">O22/(O22+N22+M22)</f>
         <v>0</v>
       </c>
-      <c r="P25" s="130">
+      <c r="P25" s="125">
         <f ca="1">P22/(P22+Q22+R22)</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="130">
+      <c r="Q25" s="125">
         <f ca="1">Q22/(P22+Q22+R22)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="131">
+      <c r="R25" s="126">
         <f ca="1">R22/(R22+Q22+P22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="132" t="s">
+      <c r="A26" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="133">
+      <c r="B26" s="128">
         <f t="shared" ref="B26:R26" ca="1" si="2">B22/$B$24</f>
         <v>0</v>
       </c>
@@ -3876,7 +4175,7 @@
         <f t="shared" ca="1" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O26" s="134" t="e">
+      <c r="O26" s="129" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -3888,118 +4187,118 @@
         <f t="shared" ca="1" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R26" s="134" t="e">
+      <c r="R26" s="129" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="135" t="s">
+      <c r="A27" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="203" t="e">
+      <c r="B27" s="201" t="e">
         <f ca="1">B23/$B$24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C27" s="204"/>
-      <c r="D27" s="200" t="e">
+      <c r="C27" s="202"/>
+      <c r="D27" s="198" t="e">
         <f ca="1">D23/$B$24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="201"/>
-      <c r="F27" s="202"/>
-      <c r="G27" s="205" t="e">
+      <c r="E27" s="199"/>
+      <c r="F27" s="200"/>
+      <c r="G27" s="203" t="e">
         <f ca="1">G23/$B$24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="206"/>
-      <c r="I27" s="207"/>
-      <c r="J27" s="208" t="e">
+      <c r="H27" s="204"/>
+      <c r="I27" s="205"/>
+      <c r="J27" s="206" t="e">
         <f ca="1">J23/$B$24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="209"/>
-      <c r="L27" s="210"/>
-      <c r="M27" s="211" t="e">
+      <c r="K27" s="207"/>
+      <c r="L27" s="208"/>
+      <c r="M27" s="209" t="e">
         <f ca="1">M23/$B$24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N27" s="212"/>
-      <c r="O27" s="213"/>
-      <c r="P27" s="214" t="e">
+      <c r="N27" s="210"/>
+      <c r="O27" s="211"/>
+      <c r="P27" s="195" t="e">
         <f ca="1">P23/$B$24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q27" s="215"/>
-      <c r="R27" s="216"/>
+      <c r="Q27" s="196"/>
+      <c r="R27" s="197"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="85"/>
-      <c r="B28" s="137"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="137"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="137"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="85"/>
-      <c r="B29" s="137"/>
-      <c r="C29" s="137"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="137"/>
-      <c r="L29" s="137"/>
-      <c r="M29" s="137"/>
-      <c r="N29" s="137"/>
-      <c r="O29" s="137"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="132"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="85"/>
-      <c r="B30" s="137"/>
-      <c r="C30" s="137"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="137"/>
-      <c r="L30" s="137"/>
-      <c r="M30" s="137"/>
-      <c r="N30" s="137"/>
-      <c r="O30" s="137"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="138"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="139"/>
-      <c r="L31" s="139"/>
-      <c r="M31" s="139"/>
-      <c r="N31" s="139"/>
-      <c r="O31" s="139"/>
+      <c r="A31" s="133"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="134"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="66"/>
@@ -4121,208 +4420,208 @@
       <c r="O44" s="87"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="140"/>
-      <c r="B45" s="141"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="142"/>
-      <c r="E45" s="142"/>
-      <c r="F45" s="142"/>
-      <c r="G45" s="142"/>
-      <c r="H45" s="142"/>
-      <c r="I45" s="142"/>
-      <c r="J45" s="142"/>
-      <c r="K45" s="142"/>
-      <c r="L45" s="142"/>
-      <c r="M45" s="142"/>
-      <c r="N45" s="142"/>
-      <c r="O45" s="142"/>
+      <c r="A45" s="135"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="137"/>
+      <c r="J45" s="137"/>
+      <c r="K45" s="137"/>
+      <c r="L45" s="137"/>
+      <c r="M45" s="137"/>
+      <c r="N45" s="137"/>
+      <c r="O45" s="137"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="140"/>
-      <c r="B46" s="141"/>
-      <c r="C46" s="141"/>
-      <c r="D46" s="142"/>
-      <c r="E46" s="142"/>
-      <c r="F46" s="142"/>
-      <c r="G46" s="142"/>
-      <c r="H46" s="142"/>
-      <c r="I46" s="142"/>
-      <c r="J46" s="142"/>
-      <c r="K46" s="142"/>
-      <c r="L46" s="142"/>
-      <c r="M46" s="142"/>
-      <c r="N46" s="142"/>
-      <c r="O46" s="142"/>
+      <c r="A46" s="135"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="137"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="137"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="137"/>
+      <c r="J46" s="137"/>
+      <c r="K46" s="137"/>
+      <c r="L46" s="137"/>
+      <c r="M46" s="137"/>
+      <c r="N46" s="137"/>
+      <c r="O46" s="137"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="140"/>
-      <c r="B47" s="141"/>
-      <c r="C47" s="141"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="142"/>
-      <c r="J47" s="142"/>
-      <c r="K47" s="142"/>
-      <c r="L47" s="142"/>
-      <c r="M47" s="142"/>
-      <c r="N47" s="142"/>
-      <c r="O47" s="142"/>
+      <c r="A47" s="135"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="137"/>
+      <c r="J47" s="137"/>
+      <c r="K47" s="137"/>
+      <c r="L47" s="137"/>
+      <c r="M47" s="137"/>
+      <c r="N47" s="137"/>
+      <c r="O47" s="137"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="140"/>
-      <c r="B48" s="141"/>
-      <c r="C48" s="141"/>
-      <c r="D48" s="142"/>
-      <c r="E48" s="142"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="142"/>
-      <c r="H48" s="142"/>
-      <c r="I48" s="142"/>
-      <c r="J48" s="142"/>
-      <c r="K48" s="142"/>
-      <c r="L48" s="142"/>
-      <c r="M48" s="142"/>
-      <c r="N48" s="142"/>
-      <c r="O48" s="142"/>
+      <c r="A48" s="135"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="136"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="137"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="137"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="137"/>
+      <c r="J48" s="137"/>
+      <c r="K48" s="137"/>
+      <c r="L48" s="137"/>
+      <c r="M48" s="137"/>
+      <c r="N48" s="137"/>
+      <c r="O48" s="137"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="140"/>
-      <c r="B49" s="141"/>
-      <c r="C49" s="141"/>
-      <c r="D49" s="142"/>
-      <c r="E49" s="142"/>
-      <c r="F49" s="142"/>
-      <c r="G49" s="142"/>
-      <c r="H49" s="142"/>
-      <c r="I49" s="142"/>
-      <c r="J49" s="142"/>
-      <c r="K49" s="142"/>
-      <c r="L49" s="142"/>
-      <c r="M49" s="142"/>
-      <c r="N49" s="142"/>
-      <c r="O49" s="142"/>
+      <c r="A49" s="135"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="137"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="137"/>
+      <c r="J49" s="137"/>
+      <c r="K49" s="137"/>
+      <c r="L49" s="137"/>
+      <c r="M49" s="137"/>
+      <c r="N49" s="137"/>
+      <c r="O49" s="137"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="140"/>
-      <c r="B50" s="141"/>
-      <c r="C50" s="141"/>
-      <c r="D50" s="142"/>
-      <c r="E50" s="142"/>
-      <c r="F50" s="142"/>
-      <c r="G50" s="142"/>
-      <c r="H50" s="142"/>
-      <c r="I50" s="142"/>
-      <c r="J50" s="142"/>
-      <c r="K50" s="142"/>
-      <c r="L50" s="142"/>
-      <c r="M50" s="142"/>
-      <c r="N50" s="142"/>
-      <c r="O50" s="142"/>
+      <c r="A50" s="135"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="137"/>
+      <c r="K50" s="137"/>
+      <c r="L50" s="137"/>
+      <c r="M50" s="137"/>
+      <c r="N50" s="137"/>
+      <c r="O50" s="137"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="140"/>
-      <c r="B51" s="141"/>
-      <c r="C51" s="141"/>
-      <c r="D51" s="142"/>
-      <c r="E51" s="142"/>
-      <c r="F51" s="142"/>
-      <c r="G51" s="142"/>
-      <c r="H51" s="142"/>
-      <c r="I51" s="142"/>
-      <c r="J51" s="142"/>
-      <c r="K51" s="142"/>
-      <c r="L51" s="142"/>
-      <c r="M51" s="142"/>
-      <c r="N51" s="142"/>
-      <c r="O51" s="142"/>
+      <c r="A51" s="135"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="136"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="137"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="137"/>
+      <c r="H51" s="137"/>
+      <c r="I51" s="137"/>
+      <c r="J51" s="137"/>
+      <c r="K51" s="137"/>
+      <c r="L51" s="137"/>
+      <c r="M51" s="137"/>
+      <c r="N51" s="137"/>
+      <c r="O51" s="137"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="140"/>
-      <c r="B52" s="141"/>
-      <c r="C52" s="141"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="142"/>
-      <c r="F52" s="142"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="142"/>
-      <c r="K52" s="142"/>
-      <c r="L52" s="142"/>
-      <c r="M52" s="142"/>
-      <c r="N52" s="142"/>
-      <c r="O52" s="142"/>
+      <c r="A52" s="135"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="136"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="137"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="137"/>
+      <c r="J52" s="137"/>
+      <c r="K52" s="137"/>
+      <c r="L52" s="137"/>
+      <c r="M52" s="137"/>
+      <c r="N52" s="137"/>
+      <c r="O52" s="137"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="140"/>
-      <c r="B53" s="141"/>
-      <c r="C53" s="141"/>
-      <c r="D53" s="142"/>
-      <c r="E53" s="142"/>
-      <c r="F53" s="142"/>
-      <c r="G53" s="142"/>
-      <c r="H53" s="142"/>
-      <c r="I53" s="142"/>
-      <c r="J53" s="142"/>
-      <c r="K53" s="142"/>
-      <c r="L53" s="142"/>
-      <c r="M53" s="142"/>
-      <c r="N53" s="142"/>
-      <c r="O53" s="142"/>
+      <c r="A53" s="135"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="137"/>
+      <c r="G53" s="137"/>
+      <c r="H53" s="137"/>
+      <c r="I53" s="137"/>
+      <c r="J53" s="137"/>
+      <c r="K53" s="137"/>
+      <c r="L53" s="137"/>
+      <c r="M53" s="137"/>
+      <c r="N53" s="137"/>
+      <c r="O53" s="137"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="140"/>
-      <c r="B54" s="141"/>
-      <c r="C54" s="141"/>
-      <c r="D54" s="142"/>
-      <c r="E54" s="142"/>
-      <c r="F54" s="142"/>
-      <c r="G54" s="142"/>
-      <c r="H54" s="142"/>
-      <c r="I54" s="142"/>
-      <c r="J54" s="142"/>
-      <c r="K54" s="142"/>
-      <c r="L54" s="142"/>
-      <c r="M54" s="142"/>
-      <c r="N54" s="142"/>
-      <c r="O54" s="142"/>
+      <c r="A54" s="135"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="137"/>
+      <c r="G54" s="137"/>
+      <c r="H54" s="137"/>
+      <c r="I54" s="137"/>
+      <c r="J54" s="137"/>
+      <c r="K54" s="137"/>
+      <c r="L54" s="137"/>
+      <c r="M54" s="137"/>
+      <c r="N54" s="137"/>
+      <c r="O54" s="137"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="140"/>
-      <c r="B55" s="141"/>
-      <c r="C55" s="141"/>
-      <c r="D55" s="142"/>
-      <c r="E55" s="142"/>
-      <c r="F55" s="142"/>
-      <c r="G55" s="142"/>
-      <c r="H55" s="142"/>
-      <c r="I55" s="142"/>
-      <c r="J55" s="142"/>
-      <c r="K55" s="142"/>
-      <c r="L55" s="142"/>
-      <c r="M55" s="142"/>
-      <c r="N55" s="142"/>
-      <c r="O55" s="142"/>
+      <c r="A55" s="135"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="136"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="137"/>
+      <c r="G55" s="137"/>
+      <c r="H55" s="137"/>
+      <c r="I55" s="137"/>
+      <c r="J55" s="137"/>
+      <c r="K55" s="137"/>
+      <c r="L55" s="137"/>
+      <c r="M55" s="137"/>
+      <c r="N55" s="137"/>
+      <c r="O55" s="137"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="143"/>
-      <c r="B56" s="144"/>
-      <c r="C56" s="144"/>
-      <c r="D56" s="145"/>
-      <c r="E56" s="145"/>
-      <c r="F56" s="145"/>
-      <c r="G56" s="145"/>
-      <c r="H56" s="145"/>
-      <c r="I56" s="145"/>
-      <c r="J56" s="145"/>
-      <c r="K56" s="145"/>
-      <c r="L56" s="145"/>
-      <c r="M56" s="145"/>
-      <c r="N56" s="145"/>
-      <c r="O56" s="145"/>
+      <c r="A56" s="138"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="140"/>
+      <c r="F56" s="140"/>
+      <c r="G56" s="140"/>
+      <c r="H56" s="140"/>
+      <c r="I56" s="140"/>
+      <c r="J56" s="140"/>
+      <c r="K56" s="140"/>
+      <c r="L56" s="140"/>
+      <c r="M56" s="140"/>
+      <c r="N56" s="140"/>
+      <c r="O56" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -4365,4 +4664,322 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A953C9-90A3-4D78-843E-8AC1361E095C}">
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" style="218" customWidth="1"/>
+    <col min="2" max="15" width="9.7109375" style="218" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="218"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="219"/>
+      <c r="B2" s="220" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="221"/>
+      <c r="O2" s="221"/>
+      <c r="P2" s="221"/>
+      <c r="Q2" s="221"/>
+      <c r="R2" s="222"/>
+      <c r="S2" s="223"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="224" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="225"/>
+      <c r="M3" s="225"/>
+      <c r="N3" s="225"/>
+      <c r="O3" s="225"/>
+      <c r="P3" s="225"/>
+      <c r="Q3" s="225"/>
+      <c r="R3" s="226"/>
+      <c r="S3" s="227"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="228" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="229">
+        <v>1</v>
+      </c>
+      <c r="C4" s="230"/>
+      <c r="D4" s="231">
+        <v>2</v>
+      </c>
+      <c r="E4" s="232"/>
+      <c r="F4" s="233"/>
+      <c r="G4" s="234">
+        <v>3</v>
+      </c>
+      <c r="H4" s="235"/>
+      <c r="I4" s="236"/>
+      <c r="J4" s="237">
+        <v>4</v>
+      </c>
+      <c r="K4" s="238"/>
+      <c r="L4" s="239"/>
+      <c r="M4" s="240">
+        <v>5</v>
+      </c>
+      <c r="N4" s="241"/>
+      <c r="O4" s="242"/>
+      <c r="P4" s="243">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="244"/>
+      <c r="R4" s="245"/>
+      <c r="S4" s="246"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="247" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="248" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="249" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="250" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="250" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="250" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="251" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="251" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="251" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="252" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="252" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="252" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="253" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="253" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="254" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="255" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="255" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" s="256" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="257"/>
+    </row>
+    <row r="6" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="258" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="259">
+        <f>SUM(B7:O7)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="260"/>
+      <c r="D6" s="260"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="260"/>
+      <c r="H6" s="260"/>
+      <c r="I6" s="260"/>
+      <c r="J6" s="260"/>
+      <c r="K6" s="260"/>
+      <c r="L6" s="260"/>
+      <c r="M6" s="260"/>
+      <c r="N6" s="260"/>
+      <c r="O6" s="260"/>
+      <c r="P6" s="260"/>
+      <c r="Q6" s="260"/>
+      <c r="R6" s="261"/>
+      <c r="S6" s="262"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="263" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="264">
+        <f>SUM(B8)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="265"/>
+      <c r="D7" s="264">
+        <f>SUM(D8:E8)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="266"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="264">
+        <f>SUM(G8:H8)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="266"/>
+      <c r="I7" s="265"/>
+      <c r="J7" s="264">
+        <f>SUM(J8:K8)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="266"/>
+      <c r="L7" s="265"/>
+      <c r="M7" s="264">
+        <f>SUM(M8:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="266"/>
+      <c r="O7" s="267"/>
+      <c r="P7" s="264">
+        <f>SUM(P8:R8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="266"/>
+      <c r="R7" s="267"/>
+      <c r="S7" s="268"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="269" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="270">
+        <f t="shared" ref="B8:R8" si="0">SUM(B12)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="270">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="270">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="270">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="270">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="270">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="270">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="270">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="270">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="270">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="270">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="270">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="270">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="270">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="270">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="270">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="270">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="271"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S13" s="227"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S14" s="246"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S15" s="257"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S16" s="262"/>
+    </row>
+    <row r="17" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S17" s="268"/>
+    </row>
+    <row r="18" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S18" s="271"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Plugin_apartmentography/bin/Debug/Resources/Отчёты.xlsx
+++ b/Plugin_apartmentography/bin/Debug/Resources/Отчёты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.sinyagina\AppData\Roaming\Autodesk\Revit\Addins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938010C6-090D-4FE7-A400-CCA8A9BD0C2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F251B46B-ED65-4A16-9342-106C04D7FAA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ТЭП по модели АР" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>ТЕХНИКО-ЭКОНОМИЧЕКИЕ ПОКАЗАТЕЛИ ПРОЕКТА</t>
   </si>
@@ -143,13 +143,31 @@
   </si>
   <si>
     <t>Коэффициент обеспеченности</t>
+  </si>
+  <si>
+    <t>кв.м</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>шт.</t>
+  </si>
+  <si>
+    <t>шт/кв</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Ед.изм.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,11 +207,6 @@
       <name val="Factor A"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Factor A"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Factor A"/>
@@ -208,17 +221,6 @@
       <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="Factor A"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="64"/>
-      <name val="Factor A"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="64"/>
       <name val="Factor A"/>
     </font>
     <font>
@@ -273,6 +275,37 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Factor A"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Factor A"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Factor A"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="64"/>
+      <name val="Factor A"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="64"/>
+      <name val="Factor A"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="11">
@@ -452,51 +485,6 @@
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FF000000"/>
       </left>
       <right style="thick">
@@ -651,14 +639,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -667,8 +685,8 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
@@ -679,32 +697,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,162 +744,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1159,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC4F7CB-41F2-418C-922A-6CBCBCF37326}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,575 +1198,649 @@
     <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="21"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="22"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="22"/>
-    </row>
-    <row r="9" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="23"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="24"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="25"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="25"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="24"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="26"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="24"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="24"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="24"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="24"/>
-    </row>
-    <row r="19" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="26"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="B19" s="35"/>
+      <c r="C19" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="27"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="24"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="24"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="24"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="28"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="B24" s="37"/>
+      <c r="C24" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="24"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="24"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="24"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="B28" s="38"/>
+      <c r="C28" s="53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="B29" s="38"/>
+      <c r="C29" s="53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="27"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="B30" s="37"/>
+      <c r="C30" s="51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="27"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="B31" s="37"/>
+      <c r="C31" s="51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="27"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="B32" s="37"/>
+      <c r="C32" s="51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="27"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="B33" s="37"/>
+      <c r="C33" s="51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="27"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="B34" s="37"/>
+      <c r="C34" s="51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="52"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="53" t="s">
+      <c r="B35" s="30"/>
+      <c r="C35" s="48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="55"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="54" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="33"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="33"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="33"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="33"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="33"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="31"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="19"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="31"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="19"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="31"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="19"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="31"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="19"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="31"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="31"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="19"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="31"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="19"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="31"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="19"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="31"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="19"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="31"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="19"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="31"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="19"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="31"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="19"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="31"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="19"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="31"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="19"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="31"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="19"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="31"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="19"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="31"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="19"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="31"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="19"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="31"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="19"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="31"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="19"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="31"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="19"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="31"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="19"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="31"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="19"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="31"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="19"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="31"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="19"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="31"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="19"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="31"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="19"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="31"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="19"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="35"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="31"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="19"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="31"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="19"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -1758,7 +1860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0A87BA-C316-4196-9294-7260D5C7BFC0}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -1770,16 +1872,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
